--- a/configuration/RequestInstructor.xlsx
+++ b/configuration/RequestInstructor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B1486-BC3F-4EAB-8E20-8935E0DBBB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106467D8-A2EB-4A00-8D40-79FA3A871999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F704052C-180B-4899-86BF-0F8A9084F4A0}"/>
   </bookViews>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>phone number</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -91,19 +79,37 @@
   </si>
   <si>
     <t>saya adalah suhadi</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.4"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66968723-F4C4-45A1-97FC-B52E9EE5992E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,77 +468,81 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>81122334455</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>8123123456</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>